--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3813</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Javed Ahmadi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1176,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>28/11/2014</t>
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2148,7 +2211,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2468,7 +2530,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2923,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2945,7 +3007,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2982,7 +3044,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3019,7 +3081,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3056,7 +3118,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3093,7 +3155,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3130,7 +3192,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3167,7 +3229,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3204,7 +3266,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3241,7 +3303,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3278,7 +3340,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3315,7 +3377,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3352,7 +3414,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3389,7 +3451,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3426,7 +3488,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3463,7 +3525,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3500,7 +3562,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3537,7 +3599,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3574,7 +3636,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3611,7 +3673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3648,7 +3710,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3674,6 +3736,569 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>0/35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.21%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15.25%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.54%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13.24%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1176,6 +1176,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>28/11/2014</t>
@@ -2211,6 +2212,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -3742,567 +3744,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3915</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11.60%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3918</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.19%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.21%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4046</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4092</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.20%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4093</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.82%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4097</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15.25%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4136</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31.54%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4147</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4154</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4203</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4259</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13.24%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.15%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.14%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3813.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +662,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1176,7 +1177,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>28/11/2014</t>
@@ -2212,7 +2212,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -3744,4 +3743,1439 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18.62%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16.34%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16.60%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.00%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.17%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.15%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.99%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.21%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>15.25%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.54%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13.24%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>